--- a/AutomationFramework/src/test/resources/testdata/TestData.xlsx
+++ b/AutomationFramework/src/test/resources/testdata/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k.kirubakaran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\UK-SDET\AutomationFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1908AD5B-9F4C-44FE-A617-B4BB2D0065C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C9F6A8-7758-447F-B557-F0D463274049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{AAED8AE7-F310-4866-A491-1CE64FCB734C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Lokesh</t>
   </si>
@@ -34,24 +34,25 @@
   </si>
   <si>
     <t>femi</t>
+  </si>
+  <si>
+    <t>Lokesh123</t>
+  </si>
+  <si>
+    <t>sowmya124</t>
+  </si>
+  <si>
+    <t>femi125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,16 +75,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,18 +409,25 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
